--- a/optimal_N.xlsx
+++ b/optimal_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\pimk\Documents\contingency_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E93AE04-F53A-4E60-8731-945A67D59543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC77D5-C4CB-40BD-978C-8C0F1F6A3A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2FB67A3-2AB3-4D1F-9C40-6C92C00A2893}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>2x2</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEED702-30E0-4F0B-A777-B33AB4154615}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +435,15 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -465,8 +471,26 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -476,8 +500,14 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
@@ -493,8 +523,17 @@
       <c r="J3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
@@ -510,8 +549,17 @@
       <c r="J4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>58</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -527,8 +575,17 @@
       <c r="J5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>6</v>
       </c>
@@ -541,8 +598,17 @@
       <c r="J6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7</v>
       </c>
@@ -555,8 +621,17 @@
       <c r="J7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>67</v>
+      </c>
+      <c r="T7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8</v>
       </c>
@@ -569,8 +644,17 @@
       <c r="J8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>226</v>
+      </c>
+      <c r="T8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>9</v>
       </c>
@@ -583,8 +667,14 @@
       <c r="J9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>35</v>
+      </c>
+      <c r="T9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>10</v>
       </c>
@@ -597,8 +687,14 @@
       <c r="J10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11</v>
       </c>
@@ -611,8 +707,14 @@
       <c r="J11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>45</v>
+      </c>
+      <c r="T11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
@@ -625,8 +727,14 @@
       <c r="J12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>13</v>
       </c>
@@ -640,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>14</v>
       </c>
@@ -653,8 +761,17 @@
       <c r="J14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>15</v>
       </c>
@@ -667,8 +784,11 @@
       <c r="J15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>16</v>
       </c>
@@ -681,8 +801,11 @@
       <c r="J16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>17</v>
       </c>
@@ -695,8 +818,11 @@
       <c r="J17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>18</v>
       </c>
@@ -709,8 +835,11 @@
       <c r="J18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>19</v>
       </c>
@@ -723,8 +852,11 @@
       <c r="J19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>20</v>
       </c>
@@ -737,8 +869,16 @@
       <c r="J20">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -766,8 +906,11 @@
       <c r="K22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -777,8 +920,11 @@
       <c r="I23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3</v>
       </c>
@@ -791,8 +937,11 @@
       <c r="J24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4</v>
       </c>
@@ -805,8 +954,11 @@
       <c r="J25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5</v>
       </c>
@@ -820,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>6</v>
       </c>
@@ -831,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>7</v>
       </c>
@@ -842,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>8</v>
       </c>
@@ -853,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>9</v>
       </c>
@@ -864,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>10</v>
       </c>
@@ -875,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>11</v>
       </c>
@@ -1225,5 +1377,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>